--- a/Output_testing/R1_201907/Country/HKD/MN/ECUADOR_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ECUADOR_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>669.184791</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>62.8706833148788</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>624.173137</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>62.39839849907258</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>720.5796800000001</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>65.71014641328341</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>328.904822</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>66.04892528617958</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-13.78025928074335</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>55.466646</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.211155396991813</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>49.974331</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.99591865720193</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>135.028303</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.31332190781066</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>35.739949</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.177107367653212</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-63.44710922625837</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>10.314002</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.9690123896599833</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>14.055839</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.405157946040869</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>17.785024</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.621828318838743</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>26.092429</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.239743470699087</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>167.074098435024</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>13.772973</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.293986706561859</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>17.954229</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.794878807617774</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>17.494266</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.595313900959469</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>9.318251</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.871241839369774</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-12.28259981421507</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>15.860226</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.490086534480738</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>16.729734</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.672466415220756</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>19.404735</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.769530855992172</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>8.374893999999999</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.681801880319266</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-29.87369737174177</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.7845220000000001</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.07370674719287716</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.615594</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2614801359575064</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>20.701697</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.887801694426673</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>8.274749999999999</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.661691492354632</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>135.3665158474005</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.940733</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3702364127272764</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>4.995314</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.499380019938276</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>7.69403</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7016237785225847</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>7.946716</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.595817440932769</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>70.18555964502823</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>7.95933</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.747788238105092</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>8.495404000000001</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.8492829517631343</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>12.333675</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.124716131412217</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>5.872112</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.179206447633287</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>15.94863604986012</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>17.222789</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.618100900649396</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>12.736142</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.273228238684638</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>6.394848</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.5831504967926553</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.470932</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.09864360369204</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>290.7808571428571</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>6.706461</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.630079749816946</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.389712</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.438838172351786</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>11.177498</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.01928357196276</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.867097</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9773846554113116</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-17.17245994082553</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>263.170409</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>24.72516360893523</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>244.1837</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>24.41097015615075</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>128.009614</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>11.67328292999866</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>57.109545</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.46843651575504</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-15.41941647700061</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,585 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.508252</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>74.50037671463792</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>11.37558724221812</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>37.89208379809227</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>8.098602499194115</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>25.32812284708317</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.6098568200723274</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.23935715750694</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.09465839922634961</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.1715004382788978</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-6.25</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>45.48144638464162</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.9652230000000001</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>73.21030775356961</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>7.59162355143642</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>18.59643134800994</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>8.422693177942076</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FOOD-PROCESSING MACHINES (EXCLUDING DOMESTIC)</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>6.964419481817095</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1.59681</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>78.50265770735132</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.920274678921815</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1878,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>669.184791</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>62.99106209371359</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>624.173137</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>62.4553256975133</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>720.5796800000001</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>65.78924354702967</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>328.904822</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>66.13953552664837</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-13.78025928074335</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>55.466646</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.221133219562414</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>49.974331</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.000476525025997</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>135.028303</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.32814379640724</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>35.739949</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>7.186953393483848</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-63.44710922625837</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>10.314002</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.9708677620210382</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>14.055839</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.406439897295371</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>17.785024</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.62378055876592</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>26.092429</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.246931693880883</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>167.074098435024</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>13.772973</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.296464308702498</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>17.954229</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.796516308331191</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>17.494266</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.597234224743224</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>9.318251</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.873808931450469</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-12.28259981421507</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>15.860226</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.492939609839893</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>16.729734</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.673992236873151</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>19.404735</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.771660889577917</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>8.374893999999999</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.684109086259959</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-29.87369737174177</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.7845220000000001</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.07384787383173562</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.615594</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2617186890605669</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>20.701697</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.890074093915351</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>8.274749999999999</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.663971109548323</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>135.3665158474005</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.709344</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3491644182196364</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>4.649828</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.465265973433613</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>7.587256</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.6927198291765071</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7.773924</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.563259910429238</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>66.48507466202599</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>7.95933</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7492200315926747</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>8.495404000000001</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.8500577681092309</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>12.333675</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.126069983551175</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>5.872112</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.180824160250403</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>15.94863604986012</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>17.222789</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.621199085688616</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>12.736142</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.274389828057881</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.394848</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.5838524512906548</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.470932</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.100150794924732</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>290.7808571428571</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>6.706461</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.6312861663349856</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>4.389712</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.4392385324302774</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>11.177498</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.02051051199284</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.867097</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9787254956789406</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-17.17245994082553</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>261.367714</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>24.60281543049291</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>243.617423</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>24.37657854386942</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>126.797963</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>11.57671011354949</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>56.600123</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.38172989744482</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-15.27275101699048</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2336,461 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>86.512613</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>38.29788421758482</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>116.860894</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>53.55828686674187</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>167.878446</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>58.91585898703244</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>125.574562</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>59.13723142991094</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>17.47793348357962</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.9624468765415907</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>0.1333585516694164</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>27.491104</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>12.94647382096185</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>66.793594</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>29.56855932080526</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>13.955114</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.395740895753249</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>19.938554</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.997307062690655</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>14.199479</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.687006209164881</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>48.36306694011052</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>16.640057</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.36631289081526</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>44.330124</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>20.31685208595305</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>31.822213</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>11.1678006226202</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>11.991946</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.647405609879768</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>124.08205266961</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>10.989466</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>4.864877870248642</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>10.185371</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.668037383508237</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>16.478847</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.783145181847124</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>9.610321000000001</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.525819306403259</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>14.0747381799194</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>13.476948</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>5.966050223340397</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>8.731297</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.001623583717601</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>10.157306</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.56464109742914</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>6.569869</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.093969489753805</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>4.835418674257097</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>18.063157</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>7.996298706063321</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>8.421906999999999</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.859827660320837</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>14.370124</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>5.043102431447159</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>5.29131</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.491853597207068</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-35.00471928253148</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>7.052725</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.12213949044015</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>7.443548</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.41143786808924</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>13.164213</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>4.61989573565185</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>4.553019</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.144167847527763</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-62.32564097238662</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.118575</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7435002463237732</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2.703912</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.273361954550264</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.7315</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.3352523286619874</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.5180265297115034</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>6.365415</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.817877280702152</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>5.434106</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.490494450712342</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>8.637828000000001</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>3.031390083288241</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>3.258815</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.534684204928903</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-13.37155054853621</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
